--- a/result_mean.xlsx
+++ b/result_mean.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,592 +535,238 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7315860043748841</v>
+        <v>0.8294573609242955</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8740475148435631</v>
+        <v>0.847324492551951</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8578279828912814</v>
+        <v>0.9879555770508524</v>
       </c>
       <c r="F2" t="n">
-        <v>34.94661730095434</v>
+        <v>31.61430905708859</v>
       </c>
       <c r="G2" t="n">
-        <v>34.98088327753531</v>
+        <v>31.62568758033968</v>
       </c>
       <c r="H2" t="n">
-        <v>-82.86210791189079</v>
+        <v>-87.88516999291832</v>
       </c>
       <c r="I2" t="n">
-        <v>1.010798227074913</v>
+        <v>0.8793606651809494</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7382459368018521</v>
+        <v>0.7019237138360347</v>
       </c>
       <c r="K2" t="n">
-        <v>68.75762614934621</v>
+        <v>44.01892978422408</v>
       </c>
       <c r="L2" t="n">
-        <v>151.619734061237</v>
+        <v>131.9040997771424</v>
       </c>
       <c r="M2" t="n">
-        <v>23.09219434711777</v>
+        <v>23.66243011662284</v>
       </c>
       <c r="N2" t="n">
-        <v>27.53166954334864</v>
+        <v>20.33503594022193</v>
       </c>
       <c r="O2" t="n">
-        <v>1.154609717355889</v>
+        <v>1.183121505831142</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36399059665932</v>
+        <v>1.012336877341502</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1119582049825771</v>
+        <v>0.1343956200230599</v>
       </c>
       <c r="R2" t="n">
-        <v>0.48939951327544</v>
+        <v>0.4314510216125389</v>
       </c>
       <c r="S2" t="n">
-        <v>0.136888218543835</v>
+        <v>0.136077072200436</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9028566696394502</v>
+        <v>0.7789124430830378</v>
       </c>
       <c r="C3" t="n">
-        <v>5.986432284992631</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2278607469852668</v>
+        <v>0.7043502797296939</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7299519425082773</v>
+        <v>0.9536918344052601</v>
       </c>
       <c r="F3" t="n">
-        <v>11.74674910868504</v>
+        <v>22.57614568360361</v>
       </c>
       <c r="G3" t="n">
-        <v>12.10709938455373</v>
+        <v>22.59978311160178</v>
       </c>
       <c r="H3" t="n">
-        <v>73.499385255894</v>
+        <v>-42.33196306597378</v>
       </c>
       <c r="I3" t="n">
-        <v>0.19890616202643</v>
+        <v>0.4962888680529565</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4064488072012565</v>
+        <v>0.6337002875271325</v>
       </c>
       <c r="K3" t="n">
-        <v>431.530476903468</v>
+        <v>106.5546973499132</v>
       </c>
       <c r="L3" t="n">
-        <v>358.031091647574</v>
+        <v>148.8866604158869</v>
       </c>
       <c r="M3" t="n">
-        <v>89.41633992684953</v>
+        <v>28.45243843749597</v>
       </c>
       <c r="N3" t="n">
-        <v>30.25276796400364</v>
+        <v>21.27466552082484</v>
       </c>
       <c r="O3" t="n">
-        <v>4.470816996342475</v>
+        <v>1.422621921874799</v>
       </c>
       <c r="P3" t="n">
-        <v>1.463826796950908</v>
+        <v>1.049000703087467</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1374060719750567</v>
+        <v>0.1249182521898417</v>
       </c>
       <c r="R3" t="n">
-        <v>0.132768157797251</v>
+        <v>0.3725787225136806</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1362745774289489</v>
+        <v>0.1362033128236101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8423075247826641</v>
+        <v>0.8898023629593454</v>
       </c>
       <c r="C4" t="n">
-        <v>6.699586401322466</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2031740249982623</v>
+        <v>0.5422789049212833</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9070348804916624</v>
+        <v>0.9264032699958582</v>
       </c>
       <c r="F4" t="n">
-        <v>10.60241312028085</v>
+        <v>19.04163183299605</v>
       </c>
       <c r="G4" t="n">
-        <v>10.60302459351152</v>
+        <v>19.05791330911305</v>
       </c>
       <c r="H4" t="n">
-        <v>631.7545844770591</v>
+        <v>-71.00111941001825</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1287038309743404</v>
+        <v>0.3976706783719494</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4014473987012354</v>
+        <v>0.5552249870837034</v>
       </c>
       <c r="K4" t="n">
-        <v>1075.782801338534</v>
+        <v>107.950685857359</v>
       </c>
       <c r="L4" t="n">
-        <v>444.0282168614743</v>
+        <v>178.9518052673772</v>
       </c>
       <c r="M4" t="n">
-        <v>123.5330279428853</v>
+        <v>37.98407324294921</v>
       </c>
       <c r="N4" t="n">
-        <v>25.35552398171854</v>
+        <v>21.70405646351637</v>
       </c>
       <c r="O4" t="n">
-        <v>6.176651397144266</v>
+        <v>1.89920366214746</v>
       </c>
       <c r="P4" t="n">
-        <v>1.135904253469067</v>
+        <v>1.079573630574843</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1313586356457266</v>
+        <v>0.1430780567624493</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1337605205756084</v>
+        <v>0.2761314631346708</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1363282424799002</v>
+        <v>0.1360154671865832</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9798822773328254</v>
+        <v>0.9259968090782893</v>
       </c>
       <c r="C5" t="n">
-        <v>5.398012807892842</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1911057044515226</v>
+        <v>0.8938903465207784</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7597799016363387</v>
+        <v>0.937166239398316</v>
       </c>
       <c r="F5" t="n">
-        <v>9.272377424536083</v>
+        <v>-56.93506711382232</v>
       </c>
       <c r="G5" t="n">
-        <v>9.270682199490205</v>
+        <v>18.98765264640799</v>
       </c>
       <c r="H5" t="n">
-        <v>609.4496461378451</v>
+        <v>-0.1440611120148105</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08198834013340714</v>
+        <v>0.2193204395467467</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3815457698411031</v>
+        <v>0.7300621927736527</v>
       </c>
       <c r="K5" t="n">
-        <v>1027.590180818222</v>
+        <v>131.4482026160332</v>
       </c>
       <c r="L5" t="n">
-        <v>418.1405346803764</v>
+        <v>131.592263728048</v>
       </c>
       <c r="M5" t="n">
-        <v>109.665744529889</v>
+        <v>22.45107378520818</v>
       </c>
       <c r="N5" t="n">
-        <v>29.73355922019434</v>
+        <v>21.43691114233878</v>
       </c>
       <c r="O5" t="n">
-        <v>5.483287226494449</v>
+        <v>1.122553689260409</v>
       </c>
       <c r="P5" t="n">
-        <v>1.483809132516041</v>
+        <v>1.068261004387295</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1496699923493622</v>
+        <v>0.1466217628122202</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09587571288977166</v>
+        <v>0.4474362137697906</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1360000646019692</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>225</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.7091979104016778</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.55398663917278</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1597818367048612</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.517449308387805</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10.66297233645074</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10.66226047158185</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2962.305141434088</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.09315063398955628</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.4399623895895363</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3591.071920863594</v>
-      </c>
-      <c r="L6" t="n">
-        <v>628.7667794295048</v>
-      </c>
-      <c r="M6" t="n">
-        <v>130.881804770409</v>
-      </c>
-      <c r="N6" t="n">
-        <v>84.71775677912117</v>
-      </c>
-      <c r="O6" t="n">
-        <v>6.544090238520451</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.33429257800177</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.09644685168013843</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.202050874099462</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.1414646638099359</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>280</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.723315354138474</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5.465358178057116</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1902608050003148</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2174416039625275</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8.73889586040756</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8.738332931701809</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3320.264210337652</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.08771465120715058</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.3492019953779399</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4057.067280477717</v>
-      </c>
-      <c r="L7" t="n">
-        <v>736.8030701400647</v>
-      </c>
-      <c r="M7" t="n">
-        <v>130.830535963529</v>
-      </c>
-      <c r="N7" t="n">
-        <v>121.34432075586</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6.541526798176449</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5.081141036887897</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.1004282192972015</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.1106523187744786</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.1381214573062599</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>335</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.539892512173257</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6.990832118949832</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1464358395138988</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.3168787217314891</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8.841656851428287</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8.841504696563891</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6758.842724331752</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0891369591533421</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.3529382756748525</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7654.669163822839</v>
-      </c>
-      <c r="L8" t="n">
-        <v>895.8264394910882</v>
-      </c>
-      <c r="M8" t="n">
-        <v>160.7481925262019</v>
-      </c>
-      <c r="N8" t="n">
-        <v>152.0661181655855</v>
-      </c>
-      <c r="O8" t="n">
-        <v>8.037409626310092</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5.472481279065581</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.06192599640505018</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.1500295768208379</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.1409827024489644</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>390</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.5119328074658844</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.392252880870461</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1234512658803248</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1207837872814242</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7.549518709752908</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.54936256458969</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6717.974450492315</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.09425264132890201</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.2832154869005825</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7820.730354040468</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1102.755903548154</v>
-      </c>
-      <c r="M9" t="n">
-        <v>163.9290733862373</v>
-      </c>
-      <c r="N9" t="n">
-        <v>222.2564746934224</v>
-      </c>
-      <c r="O9" t="n">
-        <v>8.196453669311861</v>
-      </c>
-      <c r="P9" t="n">
-        <v>8.322786700129857</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.05357807217437409</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.08870889429402387</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.1409285204321845</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>445</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.4953498883290347</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6.148445403939268</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1053553025258923</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.2952515733699472</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9.114181350839248</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9.113973688953802</v>
-      </c>
-      <c r="H10" t="n">
-        <v>8935.596468637896</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.08519600507676653</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.3705026793709235</v>
-      </c>
-      <c r="K10" t="n">
-        <v>10072.96313641273</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1137.366667774833</v>
-      </c>
-      <c r="M10" t="n">
-        <v>190.4320563000459</v>
-      </c>
-      <c r="N10" t="n">
-        <v>209.8882668451941</v>
-      </c>
-      <c r="O10" t="n">
-        <v>9.521602815002295</v>
-      </c>
-      <c r="P10" t="n">
-        <v>7.314698259215374</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.06302507900847093</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.1618240409539604</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.1456535594084922</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>500</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5282567832568142</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.232009432482586</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.115053659311146</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1429201696432746</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7.639088802105486</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7.638967616116756</v>
-      </c>
-      <c r="H11" t="n">
-        <v>11472.00981694442</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.08038598858026466</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.3015623922255731</v>
-      </c>
-      <c r="K11" t="n">
-        <v>12677.79964564839</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1205.78982870397</v>
-      </c>
-      <c r="M11" t="n">
-        <v>179.4842687832073</v>
-      </c>
-      <c r="N11" t="n">
-        <v>246.1631215100188</v>
-      </c>
-      <c r="O11" t="n">
-        <v>8.974213439160362</v>
-      </c>
-      <c r="P11" t="n">
-        <v>8.750538966715517</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.05780192954972082</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.1010051480633487</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.1427553146125035</v>
+        <v>0.1360042161916419</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>